--- a/SPPSApi/Doc/Template/FS0402_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0402_Export.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>合意状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,6 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,84 +437,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="24.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
